--- a/pfgi_configuration_template.xlsx
+++ b/pfgi_configuration_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\PFGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576ACC4C-EF80-4FD9-9F8E-A03740016B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2697FC-732E-41CB-AF89-462308A9B63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>../data/fungi_data/fungi_db</t>
+    <t>/hadoop/sjl/data/fungi_data/fungi_db</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2060,7 +2060,9 @@
       <c r="A4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="45" t="b">
+        <v>1</v>
+      </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="32"/>
@@ -2671,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC59A7-F22E-48CC-BA56-265AE063C03B}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pfgi_configuration_template.xlsx
+++ b/pfgi_configuration_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\PFGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2697FC-732E-41CB-AF89-462308A9B63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4846A164-5C8C-4458-A106-A9EC0B6FA904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="identification" sheetId="2" r:id="rId2"/>
     <sheet name="annotation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="197">
   <si>
     <t>preprocessing</t>
   </si>
@@ -203,13 +203,7 @@
     <t>--poly_x_min_len</t>
   </si>
   <si>
-    <t>--cut_by_quality5</t>
-  </si>
-  <si>
     <t>-y</t>
-  </si>
-  <si>
-    <t>--cut_by_quality3</t>
   </si>
   <si>
     <t>--zero-cap</t>
@@ -652,6 +646,12 @@
   <si>
     <t>/hadoop/sjl/data/fungi_data/fungi_db</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>--cut_front</t>
+  </si>
+  <si>
+    <t>--cut_tail</t>
   </si>
 </sst>
 </file>
@@ -848,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -937,6 +937,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1321,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,96 +1686,96 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
+      <c r="C23" s="50" t="s">
+        <v>195</v>
       </c>
       <c r="D23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
+      <c r="C24" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="D24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3"/>
       <c r="G31" s="3" t="s">
@@ -1783,7 +1786,7 @@
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3"/>
       <c r="G32" s="3" t="s">
@@ -1794,7 +1797,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3"/>
       <c r="G33" s="3" t="s">
@@ -1805,11 +1808,11 @@
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1820,7 +1823,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -1831,7 +1834,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -1842,7 +1845,7 @@
       </c>
       <c r="D37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -1857,147 +1860,147 @@
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2005,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2027,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>1</v>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10">
         <v>20</v>
@@ -2058,7 +2061,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="45" t="b">
         <v>1</v>
@@ -2074,19 +2077,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="13"/>
@@ -2120,19 +2123,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="8"/>
@@ -2140,19 +2143,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="8"/>
@@ -2160,19 +2163,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="8"/>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="16" t="s">
@@ -2188,11 +2191,11 @@
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="8"/>
@@ -2200,19 +2203,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="8"/>
@@ -2220,7 +2223,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="16" t="s">
@@ -2228,11 +2231,11 @@
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="8"/>
@@ -2240,19 +2243,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="8"/>
@@ -2260,15 +2263,15 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="41"/>
@@ -2278,13 +2281,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="41"/>
@@ -2294,13 +2297,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="41"/>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="41"/>
@@ -2326,13 +2329,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="41"/>
@@ -2342,13 +2345,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="41"/>
@@ -2364,7 +2367,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="41"/>
@@ -2374,13 +2377,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="41"/>
@@ -2390,13 +2393,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="15"/>
@@ -2409,7 +2412,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="15"/>
@@ -2422,7 +2425,7 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="15"/>
@@ -2435,7 +2438,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="15"/>
@@ -2448,7 +2451,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="15"/>
@@ -2461,7 +2464,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="15"/>
@@ -2474,7 +2477,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -2486,7 +2489,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -2498,7 +2501,7 @@
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -2510,7 +2513,7 @@
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -2522,7 +2525,7 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -2534,7 +2537,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -2546,7 +2549,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -2558,7 +2561,7 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -2570,7 +2573,7 @@
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
       <c r="E36" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
@@ -2578,16 +2581,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2600,7 +2603,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B40" s="23">
         <v>32</v>
@@ -2608,13 +2611,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="23"/>
     </row>
@@ -2624,13 +2627,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B45" s="25"/>
     </row>
@@ -2685,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="15" t="b">
         <v>1</v>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2725,33 +2728,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="15" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="23"/>
     </row>
@@ -2771,7 +2774,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="23"/>
     </row>
@@ -2781,7 +2784,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="23"/>
     </row>
@@ -2831,7 +2834,7 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="23"/>
     </row>
@@ -2851,7 +2854,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="23"/>
     </row>
@@ -2861,7 +2864,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="23"/>
     </row>
@@ -2871,7 +2874,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="23"/>
     </row>
@@ -2921,7 +2924,7 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F24" s="23"/>
     </row>
@@ -2931,7 +2934,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F25" s="23"/>
     </row>
@@ -2941,7 +2944,7 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="23"/>
     </row>
@@ -2967,13 +2970,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B30" s="25" t="b">
         <v>1</v>
@@ -2981,13 +2984,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="23" t="b">
         <v>1</v>
@@ -2995,61 +2998,61 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B33" s="23"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" s="23"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="23"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B37" s="23"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B38" s="23"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" s="23"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40" s="23"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B41" s="23"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B42" s="25"/>
     </row>

--- a/pfgi_configuration_template.xlsx
+++ b/pfgi_configuration_template.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\PFGI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjl\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4846A164-5C8C-4458-A106-A9EC0B6FA904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E0C30-7CA0-43A4-83CD-E54545D8CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="5235" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="identification" sheetId="2" r:id="rId2"/>
     <sheet name="annotation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="197">
   <si>
     <t>preprocessing</t>
   </si>
@@ -1324,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2676,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC59A7-F22E-48CC-BA56-265AE063C03B}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,9 +3001,7 @@
       <c r="A32" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="B32" s="23"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">

--- a/pfgi_configuration_template.xlsx
+++ b/pfgi_configuration_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjl\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E0C30-7CA0-43A4-83CD-E54545D8CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DEE144-35EA-4F67-AD70-496CCB3D7587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9270" yWindow="5235" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
